--- a/data/trans_camb/P18_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_5_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-16,17</t>
+          <t>-15,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,36</t>
+          <t>-15,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,87</t>
+          <t>-11,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>73,95</t>
+          <t>-10,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-22,1</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,62</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-17,67</t>
+          <t>-22,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58,17</t>
+          <t>-15,5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-18,99</t>
+          <t>-17,68</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-15,34</t>
+          <t>-14,62</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-14,59</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>66,45</t>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-18,68</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-15,35</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-14,56</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-12,31</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,59; -8,99</t>
+          <t>-23,71; -8,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,67; -8,0</t>
+          <t>-24,13; -8,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,72; -3,7</t>
+          <t>-21,01; -3,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,41; 80,73</t>
+          <t>-20,81; -0,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,54; -14,38</t>
+          <t>-11,86; 5,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,16; -7,22</t>
+          <t>-4,27; 10,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,2; -9,22</t>
+          <t>-31,28; -14,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,01; 66,48</t>
+          <t>-24,81; -7,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,79; -13,23</t>
+          <t>-26,35; -9,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -9,89</t>
+          <t>-24,09; -4,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -8,17</t>
+          <t>-8,53; 9,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,38; 72,6</t>
+          <t>-8,03; 9,98</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-25,08; -13,75</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; -9,69</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-20,68; -8,84</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-18,53; -5,79</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-6,92; 5,24</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 8,3</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-76,9%</t>
+          <t>-74,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-73,01%</t>
+          <t>-73,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-56,42%</t>
+          <t>-56,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>351,61%</t>
+          <t>-49,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-79,03%</t>
+          <t>-23,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-55,85%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-63,18%</t>
+          <t>-78,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>208,03%</t>
+          <t>-55,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-78,04%</t>
+          <t>-63,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-63,05%</t>
+          <t>-52,27%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-59,98%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>273,12%</t>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-76,76%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-63,08%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-59,83%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-50,57%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-7,53%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>20,66%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,72; -49,08</t>
+          <t>-90,14; -48,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-88,93; -38,28</t>
+          <t>-90,01; -49,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,38; -18,54</t>
+          <t>-79,37; -17,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>219,98; 516,66</t>
+          <t>-78,17; 4,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-89,86; -58,8</t>
+          <t>-75,37; 99,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,19; -27,81</t>
+          <t>-60,7; 506,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,28; -38,98</t>
+          <t>-90,0; -59,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>130,84; 297,14</t>
+          <t>-72,64; -28,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,56; -62,62</t>
+          <t>-79,31; -37,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-76,29; -44,95</t>
+          <t>-72,7; -15,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-73,91; -37,86</t>
+          <t>-48,03; 109,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>196,23; 361,11</t>
+          <t>-45,64; 111,63</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-87,12; -60,78</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-75,48; -46,07</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-73,91; -38,87</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-68,3; -24,2</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-46,34; 58,33</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-35,82; 119,98</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,17</t>
+          <t>-11,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-18,09</t>
+          <t>-18,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,72</t>
+          <t>-14,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,41</t>
+          <t>-19,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,09</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,49</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,08</t>
+          <t>-16,28</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>60,96</t>
+          <t>-11,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-14,57</t>
+          <t>-12,35</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-14,94</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-13,46</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>64,74</t>
+          <t>-6,64</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-13,91</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-14,91</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-13,31</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-16,35</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 0,48</t>
+          <t>-24,85; 3,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,16; -9,91</t>
+          <t>-29,97; -8,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,84; -2,9</t>
+          <t>-27,59; -1,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,27; 78,0</t>
+          <t>-33,25; -9,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,57; -7,79</t>
+          <t>-3,26; 11,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,45; -4,01</t>
+          <t>-2,17; 13,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,92; -4,51</t>
+          <t>-23,45; -9,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,56; 69,06</t>
+          <t>-19,12; -4,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,59; -6,68</t>
+          <t>-19,39; -5,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-22,13; -9,3</t>
+          <t>-20,62; -5,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-20,69; -6,48</t>
+          <t>-9,98; 2,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>57,47; 70,94</t>
+          <t>-14,01; 0,12</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-21,18; -5,98</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-21,52; -8,48</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-20,46; -6,08</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-23,38; -10,0</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 6,13</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 5,51</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-49,66%</t>
+          <t>-44,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-68,23%</t>
+          <t>-68,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-55,51%</t>
+          <t>-53,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>257,97%</t>
+          <t>-74,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-66,0%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,14%</t>
+          <t>103,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-49,55%</t>
+          <t>-66,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>250,05%</t>
+          <t>-47,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-57,16%</t>
+          <t>-50,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-58,61%</t>
+          <t>-51,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-52,8%</t>
+          <t>-31,99%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>253,96%</t>
+          <t>-45,26%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-54,57%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-58,5%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-52,21%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-64,12%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-5,79%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,83; 11,36</t>
+          <t>-73,67; 25,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,12; -46,75</t>
+          <t>-83,86; -42,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,08; -9,28</t>
+          <t>-75,83; 0,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>145,68; 436,79</t>
+          <t>-89,12; -48,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,1; -37,74</t>
+          <t>-43,17; 262,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,33; -19,94</t>
+          <t>-38,56; 620,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,49; -21,61</t>
+          <t>-81,89; -43,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>182,53; 361,49</t>
+          <t>-66,31; -18,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,03; -26,8</t>
+          <t>-67,94; -24,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-70,59; -42,08</t>
+          <t>-72,09; -23,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-67,63; -27,12</t>
+          <t>-68,49; 38,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>180,09; 340,81</t>
+          <t>-74,25; 3,71</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-72,88; -21,56</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-70,56; -38,17</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-67,41; -25,45</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-76,27; -46,4</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-39,93; 87,64</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-44,76; 72,23</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-15,51</t>
+          <t>-14,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>-12,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,83</t>
+          <t>-14,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66,84</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-15,18</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,82</t>
+          <t>-14,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,27</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-15,35</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>65,11</t>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-14,85</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-10,3</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-11,78</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-6,89</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-7,55</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,11; -8,12</t>
+          <t>-21,67; -6,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,79; -5,53</t>
+          <t>-19,71; -5,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -7,14</t>
+          <t>-20,28; -7,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,2; 73,3</t>
+          <t>-14,12; 1,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,91; -9,44</t>
+          <t>-15,2; -1,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -2,98</t>
+          <t>-7,29; 4,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -4,02</t>
+          <t>-20,77; -9,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,84; 69,26</t>
+          <t>-14,38; -1,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,89; -10,26</t>
+          <t>-15,5; -3,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-15,0; -5,49</t>
+          <t>-13,22; -0,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-16,11; -7,35</t>
+          <t>-12,35; -0,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>59,74; 69,7</t>
+          <t>-7,53; 3,79</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-19,15; -9,82</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; -5,36</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-16,32; -7,06</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; -1,48</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-11,85; -3,37</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 3,19</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-66,36%</t>
+          <t>-63,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-53,25%</t>
+          <t>-53,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-59,17%</t>
+          <t>-60,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>285,99%</t>
+          <t>-28,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-62,09%</t>
+          <t>-49,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,83%</t>
+          <t>-14,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-40,14%</t>
+          <t>-61,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>258,74%</t>
+          <t>-33,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-64,18%</t>
+          <t>-39,5%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-43,58%</t>
+          <t>-29,08%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-49,2%</t>
+          <t>-38,32%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>272,25%</t>
+          <t>-12,92%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-62,11%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-43,06%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-49,28%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-28,81%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-44,36%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>-13,67%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,17; -32,41</t>
+          <t>-80,49; -26,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,91; -24,93</t>
+          <t>-70,52; -25,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,51; -38,43</t>
+          <t>-74,27; -41,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>203,27; 397,87</t>
+          <t>-52,39; 6,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,49; -44,1</t>
+          <t>-71,88; -11,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -12,65</t>
+          <t>-55,92; 66,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,29; -18,12</t>
+          <t>-75,19; -42,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>196,61; 341,5</t>
+          <t>-50,82; -7,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,07; -47,22</t>
+          <t>-55,49; -16,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-56,53; -25,41</t>
+          <t>-49,0; -1,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-60,83; -34,79</t>
+          <t>-61,84; -2,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>213,99; 335,87</t>
+          <t>-50,41; 41,4</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-72,4; -42,51</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-56,4; -25,71</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-61,68; -34,56</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-45,01; -6,89</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-61,13; -21,69</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-41,15; 37,76</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-16,47</t>
+          <t>-16,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>-10,5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-9,95</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-17,92</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-12,64</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-12,78</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-11,89</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,37</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-17,19</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
           <t>-10,85</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>67,22</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-18,2</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-12,75</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-13,0</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>49,45</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-17,43</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-10,9</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-12,12</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>58,31</t>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-11,83</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-11,15</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,33; -11,21</t>
+          <t>-23,47; -10,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,59; -1,22</t>
+          <t>-16,21; -1,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -4,65</t>
+          <t>-17,96; -4,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>58,95; 73,94</t>
+          <t>-17,32; -0,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,15; -11,77</t>
+          <t>-7,97; 7,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,85; -6,01</t>
+          <t>-2,75; 10,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -6,28</t>
+          <t>-23,9; -11,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>42,02; 56,29</t>
+          <t>-18,94; -6,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,16; -13,09</t>
+          <t>-19,35; -6,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-15,65; -5,87</t>
+          <t>-18,06; -5,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -7,41</t>
+          <t>-9,8; 3,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>53,28; 63,34</t>
+          <t>-7,93; 6,55</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-21,93; -12,76</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; -6,11</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-16,36; -7,19</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-16,11; -5,39</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 3,91</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 6,54</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-72,83%</t>
+          <t>-71,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-38,41%</t>
+          <t>-38,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-47,97%</t>
+          <t>-46,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>297,21%</t>
+          <t>-44,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-55,91%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,18%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-39,93%</t>
+          <t>-55,07%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>151,92%</t>
+          <t>-38,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-62,63%</t>
+          <t>-39,28%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-39,17%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-43,54%</t>
+          <t>-16,32%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>209,56%</t>
+          <t>-3,98%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-61,79%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-39,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-42,51%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-40,06%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-6,11%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-84,63; -56,52</t>
+          <t>-83,61; -52,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,8; -4,88</t>
+          <t>-59,17; -6,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,35; -24,36</t>
+          <t>-65,26; -21,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>199,03; 404,67</t>
+          <t>-66,64; 2,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-68,46; -39,57</t>
+          <t>-44,82; 80,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,97; -20,29</t>
+          <t>-21,41; 135,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-53,59; -20,1</t>
+          <t>-66,36; -37,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>115,33; 199,9</t>
+          <t>-52,32; -22,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-72,03; -51,38</t>
+          <t>-54,03; -21,89</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-51,24; -22,99</t>
+          <t>-50,75; -18,7</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-55,59; -29,44</t>
+          <t>-41,85; 18,57</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>168,71; 256,74</t>
+          <t>-37,67; 48,0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-70,74; -49,09</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-52,02; -24,13</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-53,11; -28,42</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-52,64; -19,25</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-32,28; 27,78</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-18,33; 58,08</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-15,21</t>
+          <t>-15,13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>68,39</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-17,53</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-9,59</t>
+          <t>-17,81</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>51,0</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-16,28</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-11,4</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>-7,54</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>59,59</t>
+          <t>-4,83</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-16,39</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-5,22</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-7,45</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-9,15</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,28; -9,27</t>
+          <t>-21,12; -9,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 1,95</t>
+          <t>-11,43; 2,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 1,49</t>
+          <t>-12,23; 1,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>60,45; 74,94</t>
+          <t>-14,07; -0,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-25,9; -10,25</t>
+          <t>-5,81; 6,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 2,07</t>
+          <t>-7,02; 7,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-17,62; -0,96</t>
+          <t>-25,3; -10,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>43,23; 58,86</t>
+          <t>-14,6; 2,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -11,3</t>
+          <t>-16,99; -1,45</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 0,39</t>
+          <t>-20,11; -3,01</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-13,08; -2,1</t>
+          <t>-13,18; 1,17</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>54,04; 64,48</t>
+          <t>-11,84; 2,39</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-21,18; -11,33</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-10,23; 0,44</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-12,89; -2,09</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; -3,71</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-7,66; 2,1</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-7,66; 2,44</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-79,52%</t>
+          <t>-79,04%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-24,43%</t>
+          <t>-24,71%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-29,63%</t>
+          <t>-28,49%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>357,39%</t>
+          <t>-37,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-57,3%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-19,18%</t>
+          <t>-2,12%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-31,35%</t>
+          <t>-58,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>166,69%</t>
+          <t>-18,58%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-65,57%</t>
+          <t>-31,48%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-21,23%</t>
+          <t>-37,25%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-30,38%</t>
+          <t>-29,28%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>239,96%</t>
+          <t>-26,25%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-66,01%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-21,01%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-29,98%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-36,83%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>-17,73%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-17,18%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,95; -57,75</t>
+          <t>-91,03; -60,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,89; 13,1</t>
+          <t>-50,37; 14,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,41; 11,24</t>
+          <t>-52,93; 12,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>251,28; 506,25</t>
+          <t>-61,89; -3,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-73,0; -37,57</t>
+          <t>-40,43; 80,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 8,82</t>
+          <t>-43,86; 89,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-49,92; -3,46</t>
+          <t>-73,39; -38,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>121,61; 235,18</t>
+          <t>-41,21; 8,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-76,13; -51,22</t>
+          <t>-49,43; -5,14</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-37,27; 2,07</t>
+          <t>-57,94; -11,87</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-46,72; -9,25</t>
+          <t>-56,68; 8,92</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>187,83; 302,0</t>
+          <t>-53,9; 18,96</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-76,39; -53,16</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-37,41; 1,72</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-45,53; -8,54</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-53,58; -15,64</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-42,18; 16,84</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-41,96; 20,2</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-11,57</t>
+          <t>-12,21</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,99</t>
+          <t>-9,36</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>54,92</t>
+          <t>-17,08</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-18,52</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-12,29</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-9,42</t>
+          <t>-19,15</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>44,4</t>
+          <t>-11,63</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-15,58</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-9,82</t>
+          <t>-14,52</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>48,83</t>
+          <t>3,59</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-16,23</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-9,54</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-8,58</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>-15,84</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-20,63; -0,59</t>
+          <t>-20,72; -2,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 3,03</t>
+          <t>-15,08; 3,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 1,24</t>
+          <t>-17,59; 0,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>44,4; 63,11</t>
+          <t>-26,0; -8,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-27,23; -9,91</t>
+          <t>-6,62; 10,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-20,89; -4,28</t>
+          <t>-13,14; 5,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-18,15; -0,64</t>
+          <t>-27,85; -10,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>34,17; 52,91</t>
+          <t>-20,04; -3,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -8,33</t>
+          <t>-16,8; 2,11</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -4,02</t>
+          <t>-23,73; -2,72</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-16,13; -3,05</t>
+          <t>-14,64; 7,32</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>41,41; 54,82</t>
+          <t>-6,76; 12,29</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-21,99; -9,39</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-15,21; -2,94</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-15,64; -1,68</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-22,94; -8,96</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 7,28</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 7,74</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-41,27%</t>
+          <t>-43,56%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-22,46%</t>
+          <t>-23,25%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-32,07%</t>
+          <t>-33,37%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>195,91%</t>
+          <t>-60,94%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-48,68%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-32,3%</t>
+          <t>-19,38%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-24,76%</t>
+          <t>-50,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>116,7%</t>
+          <t>-30,58%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-46,06%</t>
+          <t>-20,18%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-29,02%</t>
+          <t>-38,16%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-27,77%</t>
+          <t>-10,1%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>144,37%</t>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-47,97%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-28,22%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-25,37%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>-46,84%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 2,14</t>
+          <t>-65,95; -6,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 13,56</t>
+          <t>-46,97; 13,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-57,03; 6,37</t>
+          <t>-55,57; 4,49</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>124,97; 278,05</t>
+          <t>-80,41; -33,95</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-64,17; -27,37</t>
+          <t>-45,26; 153,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-48,48; -12,04</t>
+          <t>-56,61; 46,14</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-43,74; -1,14</t>
+          <t>-66,38; -30,52</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>81,68; 161,29</t>
+          <t>-48,15; -9,47</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-59,85; -26,22</t>
+          <t>-40,07; 6,35</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-44,35; -12,48</t>
+          <t>-58,38; -7,21</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-43,63; -10,29</t>
+          <t>-48,03; 41,59</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>107,86; 179,1</t>
+          <t>-29,64; 96,02</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-60,77; -29,14</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-41,19; -9,62</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-41,83; -5,29</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-61,82; -26,44</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-31,8; 55,91</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-28,97; 57,91</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-14,76</t>
+          <t>-14,3</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-11,03</t>
+          <t>-11,12</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-11,16</t>
+          <t>-11,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>66,57</t>
+          <t>-11,66</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-17,81</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-11,25</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-11,91</t>
+          <t>-17,91</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>54,04</t>
+          <t>-10,99</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-16,32</t>
+          <t>-11,56</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-11,15</t>
+          <t>-11,9</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-11,55</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>60,21</t>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-16,15</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-11,06</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-11,33</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-11,79</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -10,94</t>
+          <t>-17,85; -10,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -7,68</t>
+          <t>-14,42; -7,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,74; -7,56</t>
+          <t>-14,48; -7,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>63,06; 70,01</t>
+          <t>-15,15; -8,1</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-20,88; -14,66</t>
+          <t>-3,8; 2,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,34; -8,28</t>
+          <t>-1,7; 4,01</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -8,86</t>
+          <t>-21,19; -15,13</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>50,48; 57,27</t>
+          <t>-13,96; -7,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -14,02</t>
+          <t>-14,6; -8,61</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-13,26; -8,89</t>
+          <t>-15,28; -8,29</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-13,83; -9,25</t>
+          <t>-7,17; -0,2</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>57,66; 62,52</t>
+          <t>-4,79; 1,88</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-18,48; -13,7</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-13,54; -8,82</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-13,61; -8,66</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-14,29; -9,06</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-4,93; 0,2</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 2,07</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-62,84%</t>
+          <t>-60,88%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-46,98%</t>
+          <t>-47,34%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-47,53%</t>
+          <t>-47,12%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>283,52%</t>
+          <t>-49,64%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-59,31%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-37,46%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-39,65%</t>
+          <t>-59,65%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>179,95%</t>
+          <t>-36,6%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-60,81%</t>
+          <t>-38,5%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-41,55%</t>
+          <t>-39,62%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-43,04%</t>
+          <t>-19,69%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>224,35%</t>
+          <t>-8,53%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-60,18%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-41,22%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-42,2%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-43,94%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-14,51%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-71,82; -49,75</t>
+          <t>-70,61; -46,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-57,14; -35,94</t>
+          <t>-56,77; -36,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-58,35; -34,8</t>
+          <t>-56,66; -33,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>238,32; 333,58</t>
+          <t>-59,91; -36,7</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-65,9; -51,97</t>
+          <t>-27,74; 24,72</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-45,65; -29,16</t>
+          <t>-14,67; 46,79</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -31,36</t>
+          <t>-66,01; -52,49</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>156,14; 206,38</t>
+          <t>-44,29; -27,45</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-66,31; -54,53</t>
+          <t>-46,15; -30,09</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-47,4; -34,58</t>
+          <t>-48,72; -28,91</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-49,1; -36,23</t>
+          <t>-35,95; -0,39</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>201,29; 248,3</t>
+          <t>-25,27; 13,45</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-65,46; -52,45</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-47,49; -34,22</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-48,08; -33,82</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-50,87; -35,28</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-30,0; 1,62</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-17,39; 17,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
